--- a/기능별 일정표.xlsx
+++ b/기능별 일정표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSE6P04\Desktop\1027\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0D1C9-336A-4CBE-AD57-6A274C3ECA99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -310,28 +311,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -339,7 +340,7 @@
     <cellStyle name="설명 텍스트" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,21 +719,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="20" t="s">
@@ -756,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="1">
@@ -796,8 +797,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -809,19 +810,19 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -831,15 +832,15 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -849,15 +850,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -867,15 +868,15 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -885,15 +886,15 @@
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="8"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -903,40 +904,40 @@
       <c r="F8" s="7"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
+      <c r="N8" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="12">
         <v>3</v>
       </c>
@@ -974,8 +975,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -987,19 +988,19 @@
       <c r="F12" s="8"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="24"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1009,15 +1010,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="3"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1027,15 +1028,15 @@
       <c r="F14" s="3"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="24"/>
       <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
@@ -1045,15 +1046,15 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="8"/>
       <c r="K15" s="3"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
@@ -1063,14 +1064,14 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N16" s="23"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20" t="s">
@@ -1094,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="10">
@@ -1134,8 +1135,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1147,19 +1148,19 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1169,15 +1170,15 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="N21" s="21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
       <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
@@ -1187,15 +1188,15 @@
       <c r="F22" s="8"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="18"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="N22" s="21"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
       <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
@@ -1205,15 +1206,15 @@
       <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="18"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="N23" s="21"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
       <c r="B24" s="14" t="s">
         <v>34</v>
       </c>
@@ -1223,15 +1224,15 @@
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="3"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>8</v>
       </c>
@@ -1241,15 +1242,15 @@
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="N25" s="21"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="22"/>
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1259,12 +1260,12 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="21"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="18"/>
+      <c r="N26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1297,29 +1298,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1332,14 +1333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/기능별 일정표.xlsx
+++ b/기능별 일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0D1C9-336A-4CBE-AD57-6A274C3ECA99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC10A65-FC67-4425-8E1F-20438F33A761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,29 +311,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -734,32 +734,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -810,19 +810,19 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -832,15 +832,15 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="21"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -850,15 +850,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="21"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -868,15 +868,15 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -886,15 +886,15 @@
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="21"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -904,40 +904,40 @@
       <c r="F8" s="7"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="12">
         <v>3</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -988,19 +988,19 @@
       <c r="F12" s="8"/>
       <c r="G12" s="15"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1010,15 +1010,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="3"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1028,15 +1028,15 @@
       <c r="F14" s="3"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="23"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
@@ -1046,15 +1046,15 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="8"/>
       <c r="K15" s="3"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="23"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
@@ -1064,40 +1064,40 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="23"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1148,19 +1148,19 @@
       <c r="F20" s="8"/>
       <c r="G20" s="4"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="20" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="22"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
@@ -1170,15 +1170,15 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="21"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="22"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="10" t="s">
         <v>7</v>
       </c>
@@ -1188,15 +1188,15 @@
       <c r="F22" s="8"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="21"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="22"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="14" t="s">
         <v>33</v>
       </c>
@@ -1206,15 +1206,15 @@
       <c r="F23" s="7"/>
       <c r="G23" s="3"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="14" t="s">
         <v>34</v>
       </c>
@@ -1224,15 +1224,15 @@
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="3"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="22"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
         <v>8</v>
       </c>
@@ -1242,15 +1242,15 @@
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="21"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1260,28 +1260,15 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="21"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="21"/>
+      <c r="N26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N12:N16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="N20:N26"/>
-    <mergeCell ref="N3:N8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="I3:I8"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:I10"/>
@@ -1290,6 +1277,19 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N3:N8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="N20:N26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
